--- a/products.xlsx
+++ b/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHub\New folder\Invoices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHub\Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDCDC8B-712D-42B3-817B-EC4D55BA449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79AC1B4-0DCE-40AF-B642-14C5F3439559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>ID_Products</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Food</t>
+  </si>
+  <si>
+    <t>ID_Product</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,13 +390,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -404,10 +404,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -415,10 +415,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
